--- a/Normalizacion.xlsx
+++ b/Normalizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Documentos\UDEM\Base de Datos Avanzada\Proyecto_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A00871-4278-43A2-8A93-313665B0D3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3053FAC-894C-4500-AD1C-13CE9089FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EC11757F-63E9-4245-9EF5-19B0FAFA9FB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="227">
   <si>
     <t>555-1001</t>
   </si>
@@ -50,6 +50,9 @@
     <t>555-1002</t>
   </si>
   <si>
+    <t>800.00</t>
+  </si>
+  <si>
     <t>555-1003</t>
   </si>
   <si>
@@ -597,19 +600,142 @@
   </si>
   <si>
     <t>2NF</t>
+  </si>
+  <si>
+    <t>Eliminamos grupos repetidos y aseguramos que cada celda contenga un valor atómico:</t>
+  </si>
+  <si>
+    <t>Eliminamos dependencias parciales, asegurando que cada atributo no clave dependa completamente de la clave primaria:</t>
+  </si>
+  <si>
+    <t>Detalle_Pedido (Modificada - eliminado subtotal)</t>
+  </si>
+  <si>
+    <t>Rutas (Modificada - eliminados datos dependientes de repartidor/vehículo)</t>
+  </si>
+  <si>
+    <t>Vehiculos (Modificada - eliminado costo_por_km)</t>
+  </si>
+  <si>
+    <t>Usuarios (Modificada - eliminados datos dependientes de rol)</t>
+  </si>
+  <si>
+    <t>Tipos_Vehiculo (NUEVA TABLA)</t>
+  </si>
+  <si>
+    <t>capacidad_maxima_kg</t>
+  </si>
+  <si>
+    <t>capacidad_volumen_m3</t>
+  </si>
+  <si>
+    <t>costo_por_km_base</t>
+  </si>
+  <si>
+    <t>Motocicleta</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>0.5000</t>
+  </si>
+  <si>
+    <t>Automóvil</t>
+  </si>
+  <si>
+    <t>Camioneta</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>Roles (NUEVA TABLA)</t>
+  </si>
+  <si>
+    <t>nombre_rol</t>
+  </si>
+  <si>
+    <t>id_estado_rol</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Acceso total al sistema</t>
+  </si>
+  <si>
+    <t>Planificador</t>
+  </si>
+  <si>
+    <t>Gestiona rutas y pedidos</t>
+  </si>
+  <si>
+    <t>Repartidor</t>
+  </si>
+  <si>
+    <t>Realiza entregas</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Consulta reportes</t>
+  </si>
+  <si>
+    <t>CAMBIOS EN 2NF:</t>
+  </si>
+  <si>
+    <t>Eliminado subtotal de Detalle_Pedido (se calcula con cantidad × precio_unitario)</t>
+  </si>
+  <si>
+    <t>Creada tabla Tipos_Vehiculo para costo_por_km_base y capacidades</t>
+  </si>
+  <si>
+    <t>Creada tabla Roles para información de roles de usuario</t>
+  </si>
+  <si>
+    <t>Eliminada redundancia en Vehiculos (costo_por_km ahora en Tipos_Vehiculo)</t>
+  </si>
+  <si>
+    <t>RESUMEN 1NF:</t>
+  </si>
+  <si>
+    <t>11 tablas normalizadas</t>
+  </si>
+  <si>
+    <t>Eliminada la redundancia de datos</t>
+  </si>
+  <si>
+    <t>Cada tabla tiene su llave primaria</t>
+  </si>
+  <si>
+    <t>Relaciones establecidas mediante llaves foráneas</t>
+  </si>
+  <si>
+    <t>Datos consistentes y sin repeticiones innecesarias</t>
+  </si>
+  <si>
+    <t>3NF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -647,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E05DA8-890B-4F57-8D0B-1A717763E009}">
-  <dimension ref="B8:Z121"/>
+  <dimension ref="B8:Z170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,11 +1135,11 @@
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
@@ -1027,12 +1156,12 @@
   <sheetData>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1061,79 +1190,79 @@
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
@@ -1147,25 +1276,25 @@
         <v>201</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1">
         <v>301</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1">
         <v>5001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>1</v>
@@ -1183,19 +1312,19 @@
         <v>11</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R12" s="1">
         <v>21</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T12" s="1">
         <v>801</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" s="1">
         <v>45307</v>
@@ -1204,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="1">
         <v>2</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
@@ -1224,25 +1353,25 @@
         <v>201</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1">
         <v>301</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1">
         <v>5002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>2</v>
@@ -1251,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O13" s="1">
         <v>7001</v>
@@ -1260,19 +1389,19 @@
         <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R13" s="1">
         <v>21</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T13" s="1">
         <v>801</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V13" s="1">
         <v>45307</v>
@@ -1281,13 +1410,13 @@
         <v>4</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="1">
         <v>2</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
@@ -1301,34 +1430,34 @@
         <v>202</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1">
         <v>302</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1">
         <v>5003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O14" s="1">
         <v>7002</v>
@@ -1337,19 +1466,19 @@
         <v>12</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R14" s="1">
         <v>22</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T14" s="1">
         <v>802</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14" s="1">
         <v>45308</v>
@@ -1358,13 +1487,13 @@
         <v>3</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y14" s="1">
         <v>1</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.3">
@@ -1378,34 +1507,34 @@
         <v>202</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="1">
         <v>302</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1">
         <v>5004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O15" s="1">
         <v>7002</v>
@@ -1414,19 +1543,19 @@
         <v>12</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R15" s="1">
         <v>22</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T15" s="1">
         <v>802</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V15" s="1">
         <v>45308</v>
@@ -1435,13 +1564,13 @@
         <v>3</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y15" s="1">
         <v>1</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
@@ -1455,25 +1584,25 @@
         <v>203</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1">
         <v>303</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1">
         <v>5001</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>1</v>
@@ -1482,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O16" s="1">
         <v>7003</v>
@@ -1491,19 +1620,19 @@
         <v>13</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R16" s="1">
         <v>23</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T16" s="1">
         <v>803</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V16" s="1">
         <v>45309</v>
@@ -1512,13 +1641,13 @@
         <v>5</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y16" s="1">
         <v>3</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.3">
@@ -1532,34 +1661,34 @@
         <v>204</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1">
         <v>304</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1">
         <v>5005</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O17" s="1">
         <v>7004</v>
@@ -1568,19 +1697,19 @@
         <v>11</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R17" s="1">
         <v>21</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T17" s="1">
         <v>804</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V17" s="1">
         <v>45310</v>
@@ -1589,13 +1718,13 @@
         <v>6</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y17" s="1">
         <v>5</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.3">
@@ -1609,25 +1738,25 @@
         <v>204</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1">
         <v>304</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1">
         <v>5002</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
@@ -1645,19 +1774,19 @@
         <v>11</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R18" s="1">
         <v>21</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T18" s="1">
         <v>804</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V18" s="1">
         <v>45310</v>
@@ -1666,13 +1795,13 @@
         <v>6</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" s="1">
         <v>5</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.3">
@@ -1686,34 +1815,34 @@
         <v>205</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1">
         <v>305</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" s="1">
         <v>5006</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O19" s="1">
         <v>7005</v>
@@ -1722,19 +1851,19 @@
         <v>12</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R19" s="1">
         <v>22</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T19" s="1">
         <v>805</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" s="1">
         <v>45311</v>
@@ -1743,23 +1872,29 @@
         <v>2</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" s="1">
         <v>1</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1771,28 +1906,28 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
@@ -1812,13 +1947,13 @@
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.3">
@@ -1838,13 +1973,13 @@
         <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.3">
@@ -1864,13 +1999,13 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.3">
@@ -1890,13 +2025,13 @@
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.3">
@@ -1916,157 +2051,172 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="I35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>203</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>204</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>205</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>301</v>
       </c>
@@ -2074,7 +2224,7 @@
         <v>201</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2085,8 +2235,11 @@
       <c r="G44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>302</v>
       </c>
@@ -2094,7 +2247,7 @@
         <v>202</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -2106,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>303</v>
       </c>
@@ -2114,7 +2267,7 @@
         <v>203</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -2126,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>304</v>
       </c>
@@ -2134,7 +2287,7 @@
         <v>204</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
@@ -2146,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>305</v>
       </c>
@@ -2154,7 +2307,7 @@
         <v>205</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -2168,7 +2321,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2177,19 +2330,19 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2223,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
@@ -2240,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
@@ -2257,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
@@ -2274,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -2291,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
@@ -2325,12 +2478,12 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2341,25 +2494,25 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
@@ -2367,16 +2520,16 @@
         <v>5001</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>1</v>
@@ -2390,16 +2543,16 @@
         <v>5002</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>2</v>
@@ -2413,19 +2566,19 @@
         <v>5003</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66" s="1">
         <v>1</v>
@@ -2436,19 +2589,19 @@
         <v>5004</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H67" s="1">
         <v>1</v>
@@ -2459,19 +2612,19 @@
         <v>5005</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H68" s="1">
         <v>1</v>
@@ -2482,19 +2635,19 @@
         <v>5006</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -2502,7 +2655,7 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2513,25 +2666,25 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -2554,7 +2707,7 @@
         <v>45307.583333333336</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -2577,7 +2730,7 @@
         <v>45308.645833333336</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
@@ -2600,7 +2753,7 @@
         <v>45309.458333333336</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
@@ -2623,7 +2776,7 @@
         <v>45310.697916666664</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -2646,12 +2799,12 @@
         <v>45311.552083333336</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2664,31 +2817,31 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
@@ -2696,7 +2849,7 @@
         <v>801</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -2725,7 +2878,7 @@
         <v>802</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D82" s="1">
         <v>2</v>
@@ -2743,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J82" s="1">
         <v>120</v>
@@ -2754,7 +2907,7 @@
         <v>803</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
@@ -2772,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J83" s="1">
         <v>210</v>
@@ -2783,7 +2936,7 @@
         <v>804</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -2801,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J84" s="1">
         <v>150</v>
@@ -2812,7 +2965,7 @@
         <v>805</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D85" s="1">
         <v>5</v>
@@ -2830,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J85" s="1">
         <v>90</v>
@@ -2838,7 +2991,7 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2847,19 +3000,19 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
@@ -2870,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -2887,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -2904,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -2915,7 +3068,7 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2925,22 +3078,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
@@ -2948,13 +3101,13 @@
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
@@ -2968,13 +3121,13 @@
         <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F96" s="1">
         <v>3</v>
@@ -2988,13 +3141,13 @@
         <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F97" s="1">
         <v>3</v>
@@ -3005,20 +3158,20 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
@@ -3026,10 +3179,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
@@ -3037,10 +3190,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
@@ -3048,10 +3201,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
@@ -3059,10 +3212,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
@@ -3070,10 +3223,10 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
@@ -3081,10 +3234,10 @@
         <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
@@ -3092,28 +3245,28 @@
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
@@ -3121,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
@@ -3132,75 +3285,740 @@
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="1">
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5001</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D127" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D128" s="1">
+        <v>5003</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5004</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" s="1">
+        <v>5</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D130" s="1">
+        <v>5001</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" s="1">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D131" s="1">
+        <v>5005</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" s="1">
+        <v>7</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" s="1">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D133" s="1">
+        <v>5006</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" s="1">
+        <v>801</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>45307</v>
+      </c>
+      <c r="F137" s="1">
+        <v>21</v>
+      </c>
+      <c r="G137" s="1">
+        <v>11</v>
+      </c>
+      <c r="H137" s="1">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J137" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" s="1">
+        <v>802</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1">
+        <v>45308</v>
+      </c>
+      <c r="F138" s="1">
+        <v>22</v>
+      </c>
+      <c r="G138" s="1">
+        <v>12</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J138" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" s="1">
+        <v>803</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1">
+        <v>45309</v>
+      </c>
+      <c r="F139" s="1">
+        <v>23</v>
+      </c>
+      <c r="G139" s="1">
+        <v>13</v>
+      </c>
+      <c r="H139" s="1">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J139" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" s="1">
+        <v>804</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="1">
+        <v>4</v>
+      </c>
+      <c r="E140" s="1">
+        <v>45310</v>
+      </c>
+      <c r="F140" s="1">
+        <v>21</v>
+      </c>
+      <c r="G140" s="1">
+        <v>11</v>
+      </c>
+      <c r="H140" s="1">
+        <v>3</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J140" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" s="1">
+        <v>805</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D141" s="1">
+        <v>5</v>
+      </c>
+      <c r="E141" s="1">
+        <v>45311</v>
+      </c>
+      <c r="F141" s="1">
+        <v>22</v>
+      </c>
+      <c r="G141" s="1">
+        <v>12</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J141" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B145" s="1">
+        <v>21</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B146" s="1">
+        <v>22</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B147" s="1">
+        <v>23</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B149" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B150" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B151" s="1">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F151" s="1">
+        <v>3</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B152" s="1">
+        <v>12</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F152" s="1">
+        <v>3</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B153" s="1">
+        <v>13</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F153" s="1">
+        <v>3</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B155" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B156" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B158" s="1">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B159" s="1">
+        <v>3</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B162" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165" s="1">
+        <v>3</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="1">
+        <v>4</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B161:E161"/>
     <mergeCell ref="B109:D109"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B135:J135"/>
     <mergeCell ref="B71:H71"/>
     <mergeCell ref="B79:J79"/>
     <mergeCell ref="B87:F87"/>

--- a/Normalizacion.xlsx
+++ b/Normalizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Documentos\UDEM\Base de Datos Avanzada\Proyecto_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3053FAC-894C-4500-AD1C-13CE9089FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2709A1-2D2A-4690-AC7F-0325EC4C62ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EC11757F-63E9-4245-9EF5-19B0FAFA9FB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="455">
   <si>
     <t>555-1001</t>
   </si>
@@ -62,6 +62,12 @@
     <t>pedidos</t>
   </si>
   <si>
+    <t>detalle_pedido</t>
+  </si>
+  <si>
+    <t>entregas</t>
+  </si>
+  <si>
     <t>id_pedido</t>
   </si>
   <si>
@@ -717,6 +723,684 @@
   </si>
   <si>
     <t>3NF</t>
+  </si>
+  <si>
+    <t>Eliminamos dependencias transitivas, asegurando que cada atributo no clave dependa directamente de la clave primaria:</t>
+  </si>
+  <si>
+    <t>fecha_creacion</t>
+  </si>
+  <si>
+    <t>fecha_actualizacion</t>
+  </si>
+  <si>
+    <t>id_direccion_entrega</t>
+  </si>
+  <si>
+    <t>motivo_cancelacion</t>
+  </si>
+  <si>
+    <t>penalizacion_cancelacion</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>id_geo</t>
+  </si>
+  <si>
+    <t>zonas</t>
+  </si>
+  <si>
+    <t>nombre_zona</t>
+  </si>
+  <si>
+    <t>radio_km</t>
+  </si>
+  <si>
+    <t>id_estado_zona</t>
+  </si>
+  <si>
+    <t>id_geo_centro</t>
+  </si>
+  <si>
+    <t>Zona Norte</t>
+  </si>
+  <si>
+    <t>Área norte de la ciudad</t>
+  </si>
+  <si>
+    <t>Zona Sur</t>
+  </si>
+  <si>
+    <t>Área sur de la ciudad</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>Zona Este</t>
+  </si>
+  <si>
+    <t>Área este de la ciudad</t>
+  </si>
+  <si>
+    <t>Zona Oeste</t>
+  </si>
+  <si>
+    <t>Área oeste de la ciudad</t>
+  </si>
+  <si>
+    <t>Zona Centro</t>
+  </si>
+  <si>
+    <t>Área centro de la ciudad</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>geolocalizacion</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>longitud</t>
+  </si>
+  <si>
+    <t>hora_inicio_entrega</t>
+  </si>
+  <si>
+    <t>hora_fin_entrega</t>
+  </si>
+  <si>
+    <t>tiempo_entrega_minutos</t>
+  </si>
+  <si>
+    <t>reintentos</t>
+  </si>
+  <si>
+    <t>cumplio_sla</t>
+  </si>
+  <si>
+    <t>fue_tarde</t>
+  </si>
+  <si>
+    <t>id_motivo_fallo</t>
+  </si>
+  <si>
+    <t>rutas</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>45.90</t>
+  </si>
+  <si>
+    <t>28.13</t>
+  </si>
+  <si>
+    <t>57.60</t>
+  </si>
+  <si>
+    <t>40.14</t>
+  </si>
+  <si>
+    <t>23.70</t>
+  </si>
+  <si>
+    <t>paradas_ruta</t>
+  </si>
+  <si>
+    <t>id_parada</t>
+  </si>
+  <si>
+    <t>orden_secuencia</t>
+  </si>
+  <si>
+    <t>id_estado_parada</t>
+  </si>
+  <si>
+    <t>distancia_desde_inicio_km</t>
+  </si>
+  <si>
+    <t>tiempo_estimado_desde_inicio_min</t>
+  </si>
+  <si>
+    <t>fecha_real_entrega</t>
+  </si>
+  <si>
+    <t>vehiculos</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>tiposvehiculo</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>id_incidencia</t>
+  </si>
+  <si>
+    <t>id_tipo_incidencia</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>id_estado_incidencia</t>
+  </si>
+  <si>
+    <t>id_nivel_impacto</t>
+  </si>
+  <si>
+    <t>radio_afectacion_km</t>
+  </si>
+  <si>
+    <t>id_usuario_reporta</t>
+  </si>
+  <si>
+    <t>Manifestación en Av. Principal</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>incidencias</t>
+  </si>
+  <si>
+    <t>costos_operativos</t>
+  </si>
+  <si>
+    <t>id_costo</t>
+  </si>
+  <si>
+    <t>id_tipo_costo</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>distancia_km</t>
+  </si>
+  <si>
+    <t>fecha_costo</t>
+  </si>
+  <si>
+    <t>Combustible Ruta Norte</t>
+  </si>
+  <si>
+    <t>penalizaciones</t>
+  </si>
+  <si>
+    <t>id_penalizacion</t>
+  </si>
+  <si>
+    <t>id_tipo_penalizacion</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>evidencias</t>
+  </si>
+  <si>
+    <t>id_evidencia</t>
+  </si>
+  <si>
+    <t>id_costo_operativo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>foto_entrega</t>
+  </si>
+  <si>
+    <t>/evidencias/7004_foto1.jpg</t>
+  </si>
+  <si>
+    <t>Foto de entrega exitosa</t>
+  </si>
+  <si>
+    <t>estados_cliente</t>
+  </si>
+  <si>
+    <t>activo</t>
+  </si>
+  <si>
+    <t>Cliente activo</t>
+  </si>
+  <si>
+    <t>inactivo</t>
+  </si>
+  <si>
+    <t>Cliente inactivo</t>
+  </si>
+  <si>
+    <t>suspendido</t>
+  </si>
+  <si>
+    <t>Cliente suspendido</t>
+  </si>
+  <si>
+    <t>estados_direccion</t>
+  </si>
+  <si>
+    <t>activa</t>
+  </si>
+  <si>
+    <t>Dirección activa</t>
+  </si>
+  <si>
+    <t>inactiva</t>
+  </si>
+  <si>
+    <t>Dirección inactiva</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>Dirección principal</t>
+  </si>
+  <si>
+    <t>estados_entrega</t>
+  </si>
+  <si>
+    <t>estados_pedido</t>
+  </si>
+  <si>
+    <t>estados_producto</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>Producto disponible para venta</t>
+  </si>
+  <si>
+    <t>no disponible</t>
+  </si>
+  <si>
+    <t>Producto no disponible</t>
+  </si>
+  <si>
+    <t>descontinuado</t>
+  </si>
+  <si>
+    <t>Producto descontinuado</t>
+  </si>
+  <si>
+    <t>estados_vehiculo</t>
+  </si>
+  <si>
+    <t>operativo</t>
+  </si>
+  <si>
+    <t>Vehículo en operación</t>
+  </si>
+  <si>
+    <t>mantenimiento</t>
+  </si>
+  <si>
+    <t>Vehículo en mantenimiento</t>
+  </si>
+  <si>
+    <t>Vehículo inactivo</t>
+  </si>
+  <si>
+    <t>estados_usuario</t>
+  </si>
+  <si>
+    <t>Usuario activo en el sistema</t>
+  </si>
+  <si>
+    <t>Usuario inactivo en el sistema</t>
+  </si>
+  <si>
+    <t>bloqueado</t>
+  </si>
+  <si>
+    <t>Usuario bloqueado temporalmente</t>
+  </si>
+  <si>
+    <t>estados_rol</t>
+  </si>
+  <si>
+    <t>Estado activo para roles</t>
+  </si>
+  <si>
+    <t>Estado inactivo para roles</t>
+  </si>
+  <si>
+    <t>estados_ruta</t>
+  </si>
+  <si>
+    <t>planificada</t>
+  </si>
+  <si>
+    <t>Ruta planificada</t>
+  </si>
+  <si>
+    <t>en progreso</t>
+  </si>
+  <si>
+    <t>Ruta en progreso</t>
+  </si>
+  <si>
+    <t>completada</t>
+  </si>
+  <si>
+    <t>Ruta completada</t>
+  </si>
+  <si>
+    <t>cancelada</t>
+  </si>
+  <si>
+    <t>Ruta cancelada</t>
+  </si>
+  <si>
+    <t>estados_zona</t>
+  </si>
+  <si>
+    <t>Zona activa para entregas</t>
+  </si>
+  <si>
+    <t>Zona inactiva</t>
+  </si>
+  <si>
+    <t>restringida</t>
+  </si>
+  <si>
+    <t>Zona con restricciones</t>
+  </si>
+  <si>
+    <t>estados_parada</t>
+  </si>
+  <si>
+    <t>Parada pendiente</t>
+  </si>
+  <si>
+    <t>Parada en progreso</t>
+  </si>
+  <si>
+    <t>Parada completada</t>
+  </si>
+  <si>
+    <t>omitida</t>
+  </si>
+  <si>
+    <t>Parada omitida</t>
+  </si>
+  <si>
+    <t>estados_incidencia</t>
+  </si>
+  <si>
+    <t>reportada</t>
+  </si>
+  <si>
+    <t>Incidencia reportada</t>
+  </si>
+  <si>
+    <t>en investigacion</t>
+  </si>
+  <si>
+    <t>Incidencia en investigación</t>
+  </si>
+  <si>
+    <t>resuelta</t>
+  </si>
+  <si>
+    <t>Incidencia resuelta</t>
+  </si>
+  <si>
+    <t>cerrada</t>
+  </si>
+  <si>
+    <t>Incidencia cerrada</t>
+  </si>
+  <si>
+    <t>tiposincidencia</t>
+  </si>
+  <si>
+    <t>nombre_tipo</t>
+  </si>
+  <si>
+    <t>Trafico</t>
+  </si>
+  <si>
+    <t>Problemas de tráfico</t>
+  </si>
+  <si>
+    <t>Clima</t>
+  </si>
+  <si>
+    <t>Condiciones climáticas adversas</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Problemas de seguridad en la zona</t>
+  </si>
+  <si>
+    <t>Vehicular</t>
+  </si>
+  <si>
+    <t>Problemas con el vehículo</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Incidencias relacionadas con el cliente</t>
+  </si>
+  <si>
+    <t>tiposcosto</t>
+  </si>
+  <si>
+    <t>combustible</t>
+  </si>
+  <si>
+    <t>Costo de combustible</t>
+  </si>
+  <si>
+    <t>Costo de mantenimiento</t>
+  </si>
+  <si>
+    <t>peajes</t>
+  </si>
+  <si>
+    <t>Costo de peajes</t>
+  </si>
+  <si>
+    <t>estacionamiento</t>
+  </si>
+  <si>
+    <t>Costo de estacionamiento</t>
+  </si>
+  <si>
+    <t>otros</t>
+  </si>
+  <si>
+    <t>Otros costos operativos</t>
+  </si>
+  <si>
+    <t>tipospenalizacion</t>
+  </si>
+  <si>
+    <t>Cancelacion tardia</t>
+  </si>
+  <si>
+    <t>Entrega fuera de SLA</t>
+  </si>
+  <si>
+    <t>Reintentos excesivos</t>
+  </si>
+  <si>
+    <t>Incidencia del repartidor</t>
+  </si>
+  <si>
+    <t>Incidencia del cliente</t>
+  </si>
+  <si>
+    <t>Zona de riesgo</t>
+  </si>
+  <si>
+    <t>Distancia extra</t>
+  </si>
+  <si>
+    <t>Incumplimiento de OTP</t>
+  </si>
+  <si>
+    <t>Daño del producto</t>
+  </si>
+  <si>
+    <t>Retraso por bloqueo vial</t>
+  </si>
+  <si>
+    <t>motivos_fallo</t>
+  </si>
+  <si>
+    <t>id_motivo</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>Cliente ausente</t>
+  </si>
+  <si>
+    <t>Cliente no se encuentra en el domicilio</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>Direccion incorrecta</t>
+  </si>
+  <si>
+    <t>La dirección proporcionada es incorrecta</t>
+  </si>
+  <si>
+    <t>Paquete rechazado</t>
+  </si>
+  <si>
+    <t>Cliente rechaza recibir el paquete</t>
+  </si>
+  <si>
+    <t>Zona insegura</t>
+  </si>
+  <si>
+    <t>Zona considerada de riesgo para el repartidor</t>
+  </si>
+  <si>
+    <t>externo</t>
+  </si>
+  <si>
+    <t>Acceso restringido</t>
+  </si>
+  <si>
+    <t>No se puede acceder al domicilio (portería, rejas, etc.)</t>
+  </si>
+  <si>
+    <t>Clima adverso</t>
+  </si>
+  <si>
+    <t>Condiciones climáticas impiden la entrega</t>
+  </si>
+  <si>
+    <t>Vehiculo descompuesto</t>
+  </si>
+  <si>
+    <t>Problemas mecánicos con el vehículo de entrega</t>
+  </si>
+  <si>
+    <t>repartidor</t>
+  </si>
+  <si>
+    <t>Incidencia de transito</t>
+  </si>
+  <si>
+    <t>Problemas de tráfico o viales</t>
+  </si>
+  <si>
+    <t>Error del repartidor</t>
+  </si>
+  <si>
+    <t>Error cometido por el repartidor</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Otro motivo no especificado</t>
+  </si>
+  <si>
+    <t>sistema</t>
+  </si>
+  <si>
+    <t>niveles_impacto</t>
+  </si>
+  <si>
+    <t>nombre_nivel</t>
+  </si>
+  <si>
+    <t>bajo</t>
+  </si>
+  <si>
+    <t>Impacto bajo - Afecta pocas entregas</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t>Impacto medio - Afecta varias entregas</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>Impacto alto - Afecta una zona completa</t>
+  </si>
+  <si>
+    <t>critico</t>
+  </si>
+  <si>
+    <t>Impacto crítico - Afecta múltiples zonas</t>
+  </si>
+  <si>
+    <t>CAMBIOS PRINCIPALES EN 3NF:</t>
+  </si>
+  <si>
+    <t>Separadas todas las tablas de estados en tablas independientes</t>
+  </si>
+  <si>
+    <t>Eliminadas dependencias transitivas</t>
+  </si>
+  <si>
+    <t>Creadas tablas de catálogos para todos los tipos y estados</t>
+  </si>
+  <si>
+    <t>Relaciones normalizadas completamente</t>
   </si>
 </sst>
 </file>
@@ -738,12 +1422,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -773,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,6 +1480,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,29 +1815,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E05DA8-890B-4F57-8D0B-1A717763E009}">
-  <dimension ref="B8:Z170"/>
+  <dimension ref="A8:Z424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="E178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.77734375" bestFit="1" customWidth="1"/>
@@ -1156,12 +1846,12 @@
   <sheetData>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1190,79 +1880,79 @@
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
@@ -1276,25 +1966,25 @@
         <v>201</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1">
         <v>301</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1">
         <v>5001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>1</v>
@@ -1312,19 +2002,19 @@
         <v>11</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R12" s="1">
         <v>21</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T12" s="1">
         <v>801</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V12" s="1">
         <v>45307</v>
@@ -1333,13 +2023,13 @@
         <v>4</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y12" s="1">
         <v>2</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
@@ -1353,25 +2043,25 @@
         <v>201</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
         <v>301</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1">
         <v>5002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>2</v>
@@ -1380,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O13" s="1">
         <v>7001</v>
@@ -1389,19 +2079,19 @@
         <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R13" s="1">
         <v>21</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T13" s="1">
         <v>801</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V13" s="1">
         <v>45307</v>
@@ -1410,13 +2100,13 @@
         <v>4</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y13" s="1">
         <v>2</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
@@ -1430,34 +2120,34 @@
         <v>202</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1">
         <v>302</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1">
         <v>5003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O14" s="1">
         <v>7002</v>
@@ -1466,19 +2156,19 @@
         <v>12</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R14" s="1">
         <v>22</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T14" s="1">
         <v>802</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V14" s="1">
         <v>45308</v>
@@ -1487,13 +2177,13 @@
         <v>3</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="1">
         <v>1</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.3">
@@ -1507,34 +2197,34 @@
         <v>202</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1">
         <v>302</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1">
         <v>5004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O15" s="1">
         <v>7002</v>
@@ -1543,19 +2233,19 @@
         <v>12</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R15" s="1">
         <v>22</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T15" s="1">
         <v>802</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V15" s="1">
         <v>45308</v>
@@ -1564,13 +2254,13 @@
         <v>3</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="1">
         <v>1</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.3">
@@ -1584,25 +2274,25 @@
         <v>203</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1">
         <v>303</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1">
         <v>5001</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>1</v>
@@ -1611,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O16" s="1">
         <v>7003</v>
@@ -1620,19 +2310,19 @@
         <v>13</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R16" s="1">
         <v>23</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T16" s="1">
         <v>803</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V16" s="1">
         <v>45309</v>
@@ -1641,16 +2331,16 @@
         <v>5</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y16" s="1">
         <v>3</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1004</v>
       </c>
@@ -1661,34 +2351,34 @@
         <v>204</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1">
         <v>304</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J17" s="1">
         <v>5005</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O17" s="1">
         <v>7004</v>
@@ -1697,19 +2387,19 @@
         <v>11</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R17" s="1">
         <v>21</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T17" s="1">
         <v>804</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V17" s="1">
         <v>45310</v>
@@ -1718,16 +2408,16 @@
         <v>6</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y17" s="1">
         <v>5</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>1004</v>
       </c>
@@ -1738,25 +2428,25 @@
         <v>204</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1">
         <v>304</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J18" s="1">
         <v>5002</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
@@ -1774,19 +2464,19 @@
         <v>11</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R18" s="1">
         <v>21</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T18" s="1">
         <v>804</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V18" s="1">
         <v>45310</v>
@@ -1795,16 +2485,16 @@
         <v>6</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y18" s="1">
         <v>5</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>1005</v>
       </c>
@@ -1815,34 +2505,34 @@
         <v>205</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1">
         <v>305</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J19" s="1">
         <v>5006</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O19" s="1">
         <v>7005</v>
@@ -1851,19 +2541,19 @@
         <v>12</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R19" s="1">
         <v>22</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T19" s="1">
         <v>805</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V19" s="1">
         <v>45311</v>
@@ -1872,27 +2562,28 @@
         <v>2</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y19" s="1">
         <v>1</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -1904,33 +2595,33 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>1001</v>
       </c>
@@ -1947,16 +2638,16 @@
         <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>1002</v>
       </c>
@@ -1973,16 +2664,16 @@
         <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>1003</v>
       </c>
@@ -1999,16 +2690,16 @@
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>1004</v>
       </c>
@@ -2025,16 +2716,16 @@
         <v>6</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>1005</v>
       </c>
@@ -2051,18 +2742,18 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2071,22 +2762,22 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
@@ -2094,19 +2785,19 @@
         <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -2114,13 +2805,13 @@
         <v>202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -2131,19 +2822,19 @@
         <v>203</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -2151,13 +2842,13 @@
         <v>204</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -2168,24 +2859,24 @@
         <v>205</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2193,27 +2884,27 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="I42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -2224,7 +2915,7 @@
         <v>201</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2236,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2247,7 +2938,7 @@
         <v>202</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -2267,7 +2958,7 @@
         <v>203</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -2287,7 +2978,7 @@
         <v>204</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
@@ -2307,7 +2998,7 @@
         <v>205</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -2321,7 +3012,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2330,19 +3021,19 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2376,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
@@ -2393,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
@@ -2410,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
@@ -2427,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -2444,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
@@ -2478,12 +3169,12 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2494,25 +3185,25 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
@@ -2520,16 +3211,16 @@
         <v>5001</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>1</v>
@@ -2543,16 +3234,16 @@
         <v>5002</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>2</v>
@@ -2566,19 +3257,19 @@
         <v>5003</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H66" s="1">
         <v>1</v>
@@ -2589,19 +3280,19 @@
         <v>5004</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H67" s="1">
         <v>1</v>
@@ -2612,19 +3303,19 @@
         <v>5005</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H68" s="1">
         <v>1</v>
@@ -2635,19 +3326,19 @@
         <v>5006</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -2655,7 +3346,7 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2666,25 +3357,25 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -2730,7 +3421,7 @@
         <v>45308.645833333336</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
@@ -2753,7 +3444,7 @@
         <v>45309.458333333336</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
@@ -2776,7 +3467,7 @@
         <v>45310.697916666664</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -2799,12 +3490,12 @@
         <v>45311.552083333336</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2817,31 +3508,31 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
@@ -2849,7 +3540,7 @@
         <v>801</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -2878,7 +3569,7 @@
         <v>802</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D82" s="1">
         <v>2</v>
@@ -2896,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J82" s="1">
         <v>120</v>
@@ -2907,7 +3598,7 @@
         <v>803</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
@@ -2925,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J83" s="1">
         <v>210</v>
@@ -2936,7 +3627,7 @@
         <v>804</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -2954,7 +3645,7 @@
         <v>3</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J84" s="1">
         <v>150</v>
@@ -2965,7 +3656,7 @@
         <v>805</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D85" s="1">
         <v>5</v>
@@ -2983,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J85" s="1">
         <v>90</v>
@@ -2991,7 +3682,7 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3000,19 +3691,19 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
@@ -3023,10 +3714,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F89" s="1">
         <v>1</v>
@@ -3040,10 +3731,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -3057,10 +3748,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -3068,7 +3759,7 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3078,22 +3769,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
@@ -3101,13 +3792,13 @@
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
@@ -3121,13 +3812,13 @@
         <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F96" s="1">
         <v>3</v>
@@ -3141,13 +3832,13 @@
         <v>13</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F97" s="1">
         <v>3</v>
@@ -3158,20 +3849,20 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
@@ -3179,10 +3870,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
@@ -3190,10 +3881,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
@@ -3201,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
@@ -3212,10 +3903,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">
@@ -3223,10 +3914,10 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.3">
@@ -3234,10 +3925,10 @@
         <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.3">
@@ -3245,28 +3936,28 @@
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
@@ -3274,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
@@ -3285,105 +3976,106 @@
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B117" s="1">
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
         <v>1</v>
       </c>
@@ -3397,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
         <v>2</v>
       </c>
@@ -3414,7 +4106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B128" s="1">
         <v>3</v>
       </c>
@@ -3428,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
@@ -3459,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
@@ -3490,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
@@ -3509,7 +4201,7 @@
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -3522,31 +4214,31 @@
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H136" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
@@ -3554,7 +4246,7 @@
         <v>801</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -3583,7 +4275,7 @@
         <v>802</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3601,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J138" s="1">
         <v>120</v>
@@ -3612,7 +4304,7 @@
         <v>803</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
@@ -3630,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J139" s="1">
         <v>210</v>
@@ -3641,7 +4333,7 @@
         <v>804</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D140" s="1">
         <v>4</v>
@@ -3659,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J140" s="1">
         <v>150</v>
@@ -3670,7 +4362,7 @@
         <v>805</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D141" s="1">
         <v>5</v>
@@ -3688,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J141" s="1">
         <v>90</v>
@@ -3696,7 +4388,7 @@
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -3704,16 +4396,16 @@
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.3">
@@ -3724,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
@@ -3738,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
@@ -3752,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -3760,7 +4452,7 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -3770,22 +4462,22 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.3">
@@ -3793,13 +4485,13 @@
         <v>11</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F151" s="1">
         <v>3</v>
@@ -3813,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F152" s="1">
         <v>3</v>
@@ -3833,13 +4525,13 @@
         <v>13</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F153" s="1">
         <v>3</v>
@@ -3850,7 +4542,7 @@
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -3859,19 +4551,19 @@
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.3">
@@ -3879,16 +4571,16 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.3">
@@ -3896,16 +4588,16 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E158" s="1">
         <v>20000</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.3">
@@ -3913,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>4</v>
@@ -3922,94 +4614,3877 @@
         <v>45000</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B165" s="1">
         <v>3</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E165" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B166" s="1">
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="6"/>
+      <c r="B170" t="s">
+        <v>228</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B172" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="1">
+        <v>201</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+      <c r="G174" s="1">
+        <v>45301.375</v>
+      </c>
+      <c r="H174" s="1">
+        <v>45301.375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B175" s="1">
+        <v>202</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" s="1">
+        <v>45302.427083333336</v>
+      </c>
+      <c r="H175" s="1">
+        <v>45302.427083333336</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B176" s="1">
+        <v>203</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" s="1">
+        <v>45303.354166666664</v>
+      </c>
+      <c r="H176" s="1">
+        <v>45303.354166666664</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B177" s="1">
+        <v>204</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" s="1">
+        <v>45304.597222222219</v>
+      </c>
+      <c r="H177" s="1">
+        <v>45304.597222222219</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B178" s="1">
+        <v>205</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="G178" s="1">
+        <v>45305.489583333336</v>
+      </c>
+      <c r="H178" s="1">
+        <v>45305.489583333336</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B182" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C182" s="1">
+        <v>201</v>
+      </c>
+      <c r="D182" s="1">
+        <v>301</v>
+      </c>
+      <c r="E182" s="1">
+        <v>4</v>
+      </c>
+      <c r="F182" s="1">
+        <v>45306.4375</v>
+      </c>
+      <c r="G182" s="1">
+        <v>45307.583333333336</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M182" s="1">
+        <v>45306.4375</v>
+      </c>
+      <c r="N182" s="1">
+        <v>45306.4375</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B183" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C183" s="1">
+        <v>202</v>
+      </c>
+      <c r="D183" s="1">
+        <v>302</v>
+      </c>
+      <c r="E183" s="1">
+        <v>3</v>
+      </c>
+      <c r="F183" s="1">
+        <v>45307.46875</v>
+      </c>
+      <c r="G183" s="1">
+        <v>45308.645833333336</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M183" s="1">
+        <v>45307.46875</v>
+      </c>
+      <c r="N183" s="1">
+        <v>45307.46875</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B184" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C184" s="1">
+        <v>203</v>
+      </c>
+      <c r="D184" s="1">
+        <v>303</v>
+      </c>
+      <c r="E184" s="1">
+        <v>5</v>
+      </c>
+      <c r="F184" s="1">
+        <v>45308.40625</v>
+      </c>
+      <c r="G184" s="1">
+        <v>45309.458333333336</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M184" s="1">
+        <v>45308.40625</v>
+      </c>
+      <c r="N184" s="1">
+        <v>45308.40625</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B185" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C185" s="1">
+        <v>204</v>
+      </c>
+      <c r="D185" s="1">
+        <v>304</v>
+      </c>
+      <c r="E185" s="1">
+        <v>6</v>
+      </c>
+      <c r="F185" s="1">
+        <v>45309.555555555555</v>
+      </c>
+      <c r="G185" s="1">
+        <v>45310.697916666664</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M185" s="1">
+        <v>45309.555555555555</v>
+      </c>
+      <c r="N185" s="1">
+        <v>45309.555555555555</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B186" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C186" s="1">
+        <v>205</v>
+      </c>
+      <c r="D186" s="1">
+        <v>305</v>
+      </c>
+      <c r="E186" s="1">
+        <v>2</v>
+      </c>
+      <c r="F186" s="1">
+        <v>45310.666666666664</v>
+      </c>
+      <c r="G186" s="1">
+        <v>45311.552083333336</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M186" s="1">
+        <v>45310.666666666664</v>
+      </c>
+      <c r="N186" s="1">
+        <v>45310.666666666664</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B189" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H189" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B190" s="1">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D190" s="1">
+        <v>5001</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H190" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D191" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E191" s="1">
+        <v>2</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="1">
+        <v>3</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D192" s="1">
+        <v>5003</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H192" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B193" s="1">
+        <v>4</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D193" s="1">
+        <v>5004</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B194" s="1">
+        <v>5</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D194" s="1">
+        <v>5001</v>
+      </c>
+      <c r="E194" s="1">
+        <v>3</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H194" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B195" s="1">
+        <v>6</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D195" s="1">
+        <v>5005</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B196" s="1">
+        <v>7</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D196" s="1">
+        <v>5002</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H196" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B197" s="1">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D197" s="1">
+        <v>5006</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B199" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B201" s="2">
+        <v>5001</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2">
+        <v>1</v>
+      </c>
+      <c r="I201" s="2">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B202" s="2">
+        <v>5002</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H202" s="2">
+        <v>1</v>
+      </c>
+      <c r="I202" s="2">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B203" s="2">
+        <v>5003</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H203" s="2">
+        <v>1</v>
+      </c>
+      <c r="I203" s="2">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B204" s="2">
+        <v>5004</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1</v>
+      </c>
+      <c r="I204" s="2">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B205" s="2">
+        <v>5005</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H205" s="2">
+        <v>1</v>
+      </c>
+      <c r="I205" s="2">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B206" s="2">
+        <v>5006</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H206" s="2">
+        <v>1</v>
+      </c>
+      <c r="I206" s="2">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B208" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B210" s="1">
+        <v>301</v>
+      </c>
+      <c r="C210" s="1">
+        <v>201</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>1</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1</v>
+      </c>
+      <c r="H210" s="1">
+        <v>45301.375</v>
+      </c>
+      <c r="I210" s="1">
+        <v>45301.375</v>
+      </c>
+      <c r="J210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B211" s="1">
+        <v>302</v>
+      </c>
+      <c r="C211" s="1">
+        <v>202</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2</v>
+      </c>
+      <c r="F211" s="1">
+        <v>1</v>
+      </c>
+      <c r="G211" s="1">
+        <v>1</v>
+      </c>
+      <c r="H211" s="1">
+        <v>45302.427083333336</v>
+      </c>
+      <c r="I211" s="1">
+        <v>45302.427083333336</v>
+      </c>
+      <c r="J211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B212" s="1">
+        <v>303</v>
+      </c>
+      <c r="C212" s="1">
+        <v>203</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E212" s="1">
+        <v>3</v>
+      </c>
+      <c r="F212" s="1">
+        <v>1</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1</v>
+      </c>
+      <c r="H212" s="1">
+        <v>45303.354166666664</v>
+      </c>
+      <c r="I212" s="1">
+        <v>45303.354166666664</v>
+      </c>
+      <c r="J212" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B213" s="1">
+        <v>304</v>
+      </c>
+      <c r="C213" s="1">
+        <v>204</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="1">
+        <v>4</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1</v>
+      </c>
+      <c r="H213" s="1">
+        <v>45304.597222222219</v>
+      </c>
+      <c r="I213" s="1">
+        <v>45304.597222222219</v>
+      </c>
+      <c r="J213" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B214" s="1">
+        <v>305</v>
+      </c>
+      <c r="C214" s="1">
+        <v>205</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E214" s="1">
+        <v>5</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1</v>
+      </c>
+      <c r="H214" s="1">
+        <v>45305.489583333336</v>
+      </c>
+      <c r="I214" s="1">
+        <v>45305.489583333336</v>
+      </c>
+      <c r="J214" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B216" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B218" s="1">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1</v>
+      </c>
+      <c r="G218" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H218" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B219" s="1">
+        <v>2</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H219" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I219" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B220" s="1">
+        <v>3</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
+      <c r="G220" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H220" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I220" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B221" s="1">
+        <v>4</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1</v>
+      </c>
+      <c r="G221" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H221" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I221" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B222" s="1">
+        <v>5</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1</v>
+      </c>
+      <c r="G222" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H222" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I222" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B224" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B225" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B226" s="1">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1">
+        <v>19432608</v>
+      </c>
+      <c r="D226" s="1">
+        <v>-99133209</v>
+      </c>
+    </row>
+    <row r="227" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B227" s="1">
+        <v>2</v>
+      </c>
+      <c r="C227" s="1">
+        <v>19428470</v>
+      </c>
+      <c r="D227" s="1">
+        <v>-99127660</v>
+      </c>
+    </row>
+    <row r="228" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B228" s="1">
+        <v>3</v>
+      </c>
+      <c r="C228" s="1">
+        <v>19437300</v>
+      </c>
+      <c r="D228" s="1">
+        <v>-99142900</v>
+      </c>
+    </row>
+    <row r="229" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B229" s="1">
+        <v>4</v>
+      </c>
+      <c r="C229" s="1">
+        <v>19427800</v>
+      </c>
+      <c r="D229" s="1">
+        <v>-99138500</v>
+      </c>
+    </row>
+    <row r="230" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B230" s="1">
+        <v>5</v>
+      </c>
+      <c r="C230" s="1">
+        <v>19432600</v>
+      </c>
+      <c r="D230" s="1">
+        <v>-99133200</v>
+      </c>
+    </row>
+    <row r="231" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B231" s="1">
+        <v>6</v>
+      </c>
+      <c r="C231" s="1">
+        <v>19433000</v>
+      </c>
+      <c r="D231" s="1">
+        <v>-99134000</v>
+      </c>
+    </row>
+    <row r="233" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B233" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
+      <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+    </row>
+    <row r="234" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B235" s="1">
+        <v>7001</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D235" s="1">
+        <v>801</v>
+      </c>
+      <c r="E235" s="1">
+        <v>11</v>
+      </c>
+      <c r="F235" s="1">
+        <v>2</v>
+      </c>
+      <c r="G235" s="1">
+        <v>45307.583333333336</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J235" s="1">
+        <v>0</v>
+      </c>
+      <c r="K235" s="1">
+        <v>0</v>
+      </c>
+      <c r="L235" s="1">
+        <v>0</v>
+      </c>
+      <c r="M235" s="1">
+        <v>0</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O235" s="1">
+        <v>45306.458333333336</v>
+      </c>
+      <c r="P235" s="1">
+        <v>45306.458333333336</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B236" s="1">
+        <v>7002</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D236" s="1">
+        <v>802</v>
+      </c>
+      <c r="E236" s="1">
+        <v>12</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1</v>
+      </c>
+      <c r="G236" s="1">
+        <v>45308.645833333336</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J236" s="1">
+        <v>0</v>
+      </c>
+      <c r="K236" s="1">
+        <v>0</v>
+      </c>
+      <c r="L236" s="1">
+        <v>0</v>
+      </c>
+      <c r="M236" s="1">
+        <v>0</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O236" s="1">
+        <v>45307.5</v>
+      </c>
+      <c r="P236" s="1">
+        <v>45307.5</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B237" s="1">
+        <v>7003</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D237" s="1">
+        <v>803</v>
+      </c>
+      <c r="E237" s="1">
+        <v>13</v>
+      </c>
+      <c r="F237" s="1">
+        <v>3</v>
+      </c>
+      <c r="G237" s="1">
+        <v>45309.458333333336</v>
+      </c>
+      <c r="H237" s="1">
+        <v>45309.4375</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J237" s="1">
+        <v>45</v>
+      </c>
+      <c r="K237" s="1">
+        <v>0</v>
+      </c>
+      <c r="L237" s="1">
+        <v>1</v>
+      </c>
+      <c r="M237" s="1">
+        <v>0</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O237" s="1">
+        <v>45308.416666666664</v>
+      </c>
+      <c r="P237" s="1">
+        <v>45309.4375</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B238" s="1">
+        <v>7004</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D238" s="1">
+        <v>804</v>
+      </c>
+      <c r="E238" s="1">
+        <v>11</v>
+      </c>
+      <c r="F238" s="1">
+        <v>5</v>
+      </c>
+      <c r="G238" s="1">
+        <v>45310.697916666664</v>
+      </c>
+      <c r="H238" s="1">
+        <v>45310.677083333336</v>
+      </c>
+      <c r="I238" s="1">
+        <v>45310.6875</v>
+      </c>
+      <c r="J238" s="1">
+        <v>15</v>
+      </c>
+      <c r="K238" s="1">
+        <v>0</v>
+      </c>
+      <c r="L238" s="1">
+        <v>1</v>
+      </c>
+      <c r="M238" s="1">
+        <v>0</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O238" s="1">
+        <v>45309.583333333336</v>
+      </c>
+      <c r="P238" s="1">
+        <v>45310.6875</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B239" s="1">
+        <v>7005</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D239" s="1">
+        <v>805</v>
+      </c>
+      <c r="E239" s="1">
+        <v>12</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="G239" s="1">
+        <v>45311.552083333336</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J239" s="1">
+        <v>0</v>
+      </c>
+      <c r="K239" s="1">
+        <v>0</v>
+      </c>
+      <c r="L239" s="1">
+        <v>0</v>
+      </c>
+      <c r="M239" s="1">
+        <v>0</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O239" s="1">
+        <v>45310.708333333336</v>
+      </c>
+      <c r="P239" s="1">
+        <v>45310.708333333336</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B243" s="1">
+        <v>801</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D243" s="1">
+        <v>1</v>
+      </c>
+      <c r="E243" s="1">
+        <v>45307</v>
+      </c>
+      <c r="F243" s="1">
+        <v>21</v>
+      </c>
+      <c r="G243" s="1">
+        <v>11</v>
+      </c>
+      <c r="H243" s="1">
+        <v>2</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J243" s="1">
+        <v>180</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L243" s="1">
+        <v>45306.333333333336</v>
+      </c>
+      <c r="M243" s="1">
+        <v>45306.333333333336</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B244" s="1">
+        <v>802</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D244" s="1">
+        <v>2</v>
+      </c>
+      <c r="E244" s="1">
+        <v>45308</v>
+      </c>
+      <c r="F244" s="1">
+        <v>22</v>
+      </c>
+      <c r="G244" s="1">
+        <v>12</v>
+      </c>
+      <c r="H244" s="1">
+        <v>1</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J244" s="1">
+        <v>120</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L244" s="1">
+        <v>45307.333333333336</v>
+      </c>
+      <c r="M244" s="1">
+        <v>45307.333333333336</v>
+      </c>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B245" s="1">
+        <v>803</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D245" s="1">
+        <v>3</v>
+      </c>
+      <c r="E245" s="1">
+        <v>45309</v>
+      </c>
+      <c r="F245" s="1">
+        <v>23</v>
+      </c>
+      <c r="G245" s="1">
+        <v>13</v>
+      </c>
+      <c r="H245" s="1">
+        <v>2</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J245" s="1">
+        <v>210</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L245" s="1">
+        <v>45308.333333333336</v>
+      </c>
+      <c r="M245" s="1">
+        <v>45308.333333333336</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B246" s="1">
+        <v>804</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D246" s="1">
+        <v>4</v>
+      </c>
+      <c r="E246" s="1">
+        <v>45310</v>
+      </c>
+      <c r="F246" s="1">
+        <v>21</v>
+      </c>
+      <c r="G246" s="1">
+        <v>11</v>
+      </c>
+      <c r="H246" s="1">
+        <v>3</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J246" s="1">
+        <v>150</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L246" s="1">
+        <v>45309.333333333336</v>
+      </c>
+      <c r="M246" s="1">
+        <v>45310.708333333336</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B247" s="1">
+        <v>805</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D247" s="1">
+        <v>5</v>
+      </c>
+      <c r="E247" s="1">
+        <v>45311</v>
+      </c>
+      <c r="F247" s="1">
+        <v>22</v>
+      </c>
+      <c r="G247" s="1">
+        <v>12</v>
+      </c>
+      <c r="H247" s="1">
+        <v>1</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J247" s="1">
+        <v>90</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L247" s="1">
+        <v>45310.333333333336</v>
+      </c>
+      <c r="M247" s="1">
+        <v>45310.333333333336</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B249" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B251" s="1">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1">
+        <v>801</v>
+      </c>
+      <c r="D251" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F251" s="1">
+        <v>1</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0</v>
+      </c>
+      <c r="I251" s="1">
+        <v>45307.583333333336</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B252" s="1">
+        <v>2</v>
+      </c>
+      <c r="C252" s="1">
+        <v>804</v>
+      </c>
+      <c r="D252" s="1">
+        <v>1004</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1">
+        <v>3</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H252" s="1">
+        <v>0</v>
+      </c>
+      <c r="I252" s="1">
+        <v>45310.697916666664</v>
+      </c>
+      <c r="J252" s="1">
+        <v>45310.6875</v>
+      </c>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B254" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B256" s="1">
+        <v>21</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F256" s="1">
+        <v>1</v>
+      </c>
+      <c r="G256" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H256" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B257" s="1">
+        <v>22</v>
+      </c>
+      <c r="C257" s="1">
+        <v>2</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F257" s="1">
+        <v>1</v>
+      </c>
+      <c r="G257" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H257" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B258" s="1">
+        <v>23</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F258" s="1">
+        <v>1</v>
+      </c>
+      <c r="G258" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="H258" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
+      <c r="I260" s="4"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B261" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B262" s="1">
+        <v>11</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F262" s="1">
+        <v>3</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1</v>
+      </c>
+      <c r="H262" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I262" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B263" s="1">
+        <v>12</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F263" s="1">
+        <v>3</v>
+      </c>
+      <c r="G263" s="1">
+        <v>1</v>
+      </c>
+      <c r="H263" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I263" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B264" s="1">
+        <v>13</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F264" s="1">
+        <v>3</v>
+      </c>
+      <c r="G264" s="1">
+        <v>1</v>
+      </c>
+      <c r="H264" s="1">
+        <v>45292.333333333336</v>
+      </c>
+      <c r="I264" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B266" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B267" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B268" s="1">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B269" s="1">
+        <v>2</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E269" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B270" s="1">
+        <v>3</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B272" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B273" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E274" s="1">
+        <v>1</v>
+      </c>
+      <c r="F274" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="275" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B275" s="1">
+        <v>2</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1</v>
+      </c>
+      <c r="F275" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B276" s="1">
+        <v>3</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E166" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B170" t="s">
-        <v>226</v>
+      <c r="E276" s="1">
+        <v>1</v>
+      </c>
+      <c r="F276" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="277" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B277" s="1">
+        <v>4</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1</v>
+      </c>
+      <c r="F277" s="1">
+        <v>45292.333333333336</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B279" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
+      <c r="G279" s="4"/>
+      <c r="H279" s="4"/>
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="4"/>
+      <c r="M279" s="4"/>
+      <c r="N279" s="4"/>
+    </row>
+    <row r="280" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B280" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="281" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B281" s="1">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1</v>
+      </c>
+      <c r="D281" s="1">
+        <v>1</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F281" s="1">
+        <v>45307.333333333336</v>
+      </c>
+      <c r="G281" s="1">
+        <v>45307.5</v>
+      </c>
+      <c r="H281" s="1">
+        <v>3</v>
+      </c>
+      <c r="I281" s="1">
+        <v>2</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K281" s="1">
+        <v>11</v>
+      </c>
+      <c r="L281" s="1">
+        <v>45307.34375</v>
+      </c>
+      <c r="M281" s="1">
+        <v>45307.520833333336</v>
+      </c>
+      <c r="N281" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B283" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
+      <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+    </row>
+    <row r="284" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B284" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="285" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B285" s="1">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1">
+        <v>21</v>
+      </c>
+      <c r="D285" s="1">
+        <v>801</v>
+      </c>
+      <c r="E285" s="1">
+        <v>1</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H285" s="1">
+        <v>45307</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J285" s="1">
+        <v>45307.708333333336</v>
+      </c>
+    </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B287" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B288" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B289" s="1">
+        <v>1</v>
+      </c>
+      <c r="C289" s="1">
+        <v>7001</v>
+      </c>
+      <c r="D289" s="1">
+        <v>2</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F289" s="1">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B291" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
+      <c r="I291" s="4"/>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B292" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B293" s="1">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1">
+        <v>7004</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I293" s="1">
+        <v>45310.688194444447</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B295" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B296" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B297" s="1">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B298" s="1">
+        <v>2</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B299" s="1">
+        <v>3</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B301" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B302" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B303" s="1">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B304" s="1">
+        <v>2</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B305" s="1">
+        <v>3</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B308" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B309" s="1">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B310" s="1">
+        <v>2</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B311" s="1">
+        <v>3</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B312" s="1">
+        <v>4</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B313" s="1">
+        <v>5</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B314" s="1">
+        <v>6</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315" s="1">
+        <v>7</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B317" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B318" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B319" s="1">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B320" s="1">
+        <v>2</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B321" s="1">
+        <v>3</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B322" s="1">
+        <v>4</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B323" s="1">
+        <v>5</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B324" s="1">
+        <v>6</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B325" s="1">
+        <v>7</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B327" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B328" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="1">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330" s="1">
+        <v>2</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B331" s="1">
+        <v>3</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B335" s="1">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B336" s="1">
+        <v>2</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B337" s="1">
+        <v>3</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341" s="1">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342" s="1">
+        <v>2</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="1">
+        <v>3</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347" s="1">
+        <v>1</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B348" s="1">
+        <v>2</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352" s="1">
+        <v>1</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B353" s="1">
+        <v>2</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B354" s="1">
+        <v>3</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B355" s="1">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B357" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B358" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B359" s="1">
+        <v>1</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B360" s="1">
+        <v>2</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B361" s="1">
+        <v>3</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B363" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B364" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B365" s="1">
+        <v>1</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B366" s="1">
+        <v>2</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B367" s="1">
+        <v>3</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B368" s="1">
+        <v>4</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B371" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B372" s="1">
+        <v>1</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B373" s="1">
+        <v>2</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B374" s="1">
+        <v>3</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B375" s="1">
+        <v>4</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B377" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B378" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B379" s="1">
+        <v>1</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B380" s="1">
+        <v>2</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B381" s="1">
+        <v>3</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B382" s="1">
+        <v>4</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B383" s="1">
+        <v>5</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B385" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B386" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B387" s="1">
+        <v>1</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B388" s="1">
+        <v>2</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B389" s="1">
+        <v>3</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B390" s="1">
+        <v>4</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B391" s="1">
+        <v>5</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B393" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C393" s="4"/>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B394" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B395" s="1">
+        <v>1</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B396" s="1">
+        <v>2</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B397" s="1">
+        <v>3</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B398" s="1">
+        <v>4</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B399" s="1">
+        <v>5</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B400" s="1">
+        <v>6</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B401" s="1">
+        <v>7</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B402" s="1">
+        <v>8</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B403" s="1">
+        <v>9</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B404" s="1">
+        <v>10</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B406" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
+      <c r="E406" s="4"/>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B407" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B408" s="1">
+        <v>1</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B409" s="1">
+        <v>2</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B410" s="1">
+        <v>3</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B411" s="1">
+        <v>4</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B412" s="1">
+        <v>5</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B413" s="1">
+        <v>6</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B414" s="1">
+        <v>7</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B415" s="1">
+        <v>8</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B416" s="1">
+        <v>9</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B417" s="1">
+        <v>10</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B419" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C419" s="4"/>
+      <c r="D419" s="4"/>
+    </row>
+    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B420" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B421" s="1">
+        <v>1</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B422" s="1">
+        <v>2</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B423" s="1">
+        <v>3</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B424" s="1">
+        <v>4</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="56">
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B406:E406"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B307:D307"/>
+    <mergeCell ref="B317:D317"/>
+    <mergeCell ref="B327:D327"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="B279:N279"/>
+    <mergeCell ref="B283:J283"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B291:I291"/>
+    <mergeCell ref="B295:D295"/>
+    <mergeCell ref="B249:J249"/>
+    <mergeCell ref="B254:H254"/>
+    <mergeCell ref="B260:I260"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B208:J208"/>
+    <mergeCell ref="B216:I216"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B233:Q233"/>
+    <mergeCell ref="B241:M241"/>
+    <mergeCell ref="C170:G170"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="B180:N180"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B199:I199"/>
     <mergeCell ref="B143:E143"/>
     <mergeCell ref="B149:G149"/>
     <mergeCell ref="B155:F155"/>
